--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Abríl.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Abríl.xlsx
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>256</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -313,11 +313,11 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Declara Incompetencia Rpa</t>
+          <t xml:space="preserve">Declara Inadmisibilidad De La Querella.</t>
         </is>
       </c>
       <c r="C8" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -328,11 +328,11 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Declara Incompetencia Rpa</t>
         </is>
       </c>
       <c r="C9" s="65">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -343,11 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>191</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -358,11 +358,11 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -373,11 +373,26 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+        </is>
+      </c>
+      <c r="C12" s="65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">13º Juzgado De Garantía De Santiago</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C12" s="65">
-        <v>7</v>
+      <c r="C13" s="65">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
